--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dev\python\hack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853B0AF-9C60-4E18-A47A-374CDB21B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E3015-08BE-486F-91DB-697E85FE8D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="2820" windowWidth="14190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>tg\\images\\0a0ba31d-baeb-4095-9835-b0801b995c0a.jpg</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>zn\\images\\1a114fb6-9546-4087-9337-0bc5f1921baa.png</t>
+  </si>
+  <si>
+    <t>yt\\images\\1ddb8fde-2d4e-4c9d-976d-fd71511236da.jpg</t>
+  </si>
+  <si>
+    <t>yt\\images\\2c0f1b0f-39a9-4e59-9a9c-a2b7e6841211.jpg</t>
+  </si>
+  <si>
+    <t>yt\\images\\04e8d8ee-7cc3-4afd-abc3-ea9996cf0fb2.png</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +472,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dev\python\hack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E3015-08BE-486F-91DB-697E85FE8D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5FC87-65A6-4EF5-9D91-B34CF5C7B2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="2820" windowWidth="14190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="4215" windowWidth="14190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>tg\\images\\0a0ba31d-baeb-4095-9835-b0801b995c0a.jpg</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>yt\\images\\04e8d8ee-7cc3-4afd-abc3-ea9996cf0fb2.png</t>
+  </si>
+  <si>
+    <t>yt\\images\\4c3814e0-d7f9-43f2-b677-bfd180b2fe13.docx</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +499,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dev\python\hack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koshk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5FC87-65A6-4EF5-9D91-B34CF5C7B2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40457BDD-201F-4FCE-ABB4-BF2A210AB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="4215" windowWidth="14190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1200" windowWidth="10665" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,51 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>tg\\images\\0a0ba31d-baeb-4095-9835-b0801b995c0a.jpg</t>
   </si>
   <si>
-    <t>tg\\images\\0b751210-de3e-412a-b96f-5a8494daa6bf.PNG</t>
-  </si>
-  <si>
-    <t>tg\\images\\0ac1d316-523f-4a67-8cb5-317ec4d4f41f.jpg</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>vk\\images\\00a570ab-c58e-4a90-ad7d-1b3ecfdb3333.PNG</t>
-  </si>
-  <si>
-    <t>vk\\images\\0a5dbcdc-2e44-4579-a576-c93d5ee55485.png</t>
-  </si>
-  <si>
-    <t>vk\\images\\0ab5222c-0f02-4144-ab86-8db841fac442.png</t>
-  </si>
-  <si>
-    <t>zn\\images\\0cdea12d-b73c-40cb-a5ee-3ae985ce862d.png</t>
-  </si>
-  <si>
-    <t>zn\\images\\0f00d72f-cf11-45d2-8051-2611bcbde777.png</t>
-  </si>
-  <si>
-    <t>zn\\images\\1a114fb6-9546-4087-9337-0bc5f1921baa.png</t>
-  </si>
-  <si>
     <t>yt\\images\\1ddb8fde-2d4e-4c9d-976d-fd71511236da.jpg</t>
   </si>
   <si>
-    <t>yt\\images\\2c0f1b0f-39a9-4e59-9a9c-a2b7e6841211.jpg</t>
-  </si>
-  <si>
     <t>yt\\images\\04e8d8ee-7cc3-4afd-abc3-ea9996cf0fb2.png</t>
   </si>
   <si>
+    <t>tg\\images\\0c1986d0-b96f-448f-a59b-e1ae6e34c67e.png</t>
+  </si>
+  <si>
+    <t>tg\\images\\1e1a94b6-659e-4024-a32e-c5fac5c18bd2.png</t>
+  </si>
+  <si>
+    <t>tg\\images\\7faca313-9562-450e-9a4a-503b04493370.jpg</t>
+  </si>
+  <si>
+    <t>vk\\images\\0e230bee-8c44-424b-b243-c4d48cb49e63.jpg</t>
+  </si>
+  <si>
+    <t>vk\\images\\1dd13896-9c05-404b-97f3-982cbf79f0f8.jpg</t>
+  </si>
+  <si>
+    <t>yt\\images\\5b2bb077-4055-4253-9fb7-b7d5c092f0b5.jpg</t>
+  </si>
+  <si>
+    <t>yt\\images\\ed11c322-05c4-4255-a807-3c5f561d5156.png</t>
+  </si>
+  <si>
+    <t>zn\\images\\595bd9ec-982d-43ed-9eb9-70ca1cd32a6f.jpeg</t>
+  </si>
+  <si>
+    <t>zn\\images\\2177cd4e-441d-4aaa-84f8-2557c71a6aa5.jpg</t>
+  </si>
+  <si>
+    <t>tg\\images\\0b751210-de3e-412a-b96f-5a8494daa6bf.png</t>
+  </si>
+  <si>
+    <t>vk\\images\\0f73d217-3d71-4d3f-9cd3-e29578818514.png</t>
+  </si>
+  <si>
     <t>yt\\images\\4c3814e0-d7f9-43f2-b677-bfd180b2fe13.docx</t>
+  </si>
+  <si>
+    <t>zn\\images\\d38c0ce3-59c8-4be4-a69c-06a0655e32e1.jpg</t>
   </si>
 </sst>
 </file>
@@ -387,20 +396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +513,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
